--- a/Riesgo de liquidez/12.- VaR ApL I.xlsx
+++ b/Riesgo de liquidez/12.- VaR ApL I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de liquidez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA4F27A-E6D4-2A43-BD03-3531950C2616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9DF608-3536-064D-B8A6-BE996B4E5481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{AAAA40BB-0105-C94C-9E93-71014CF61909}"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="28280" windowHeight="18360" activeTab="1" xr2:uid="{AAAA40BB-0105-C94C-9E93-71014CF61909}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX" sheetId="1" r:id="rId1"/>
@@ -22189,8 +22189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30156819-4D43-B64F-8654-87B4BF10E538}">
   <dimension ref="A2:Q763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22777,8 +22777,8 @@
         <v>34</v>
       </c>
       <c r="P20" s="15">
-        <f>P13+P16+P17</f>
-        <v>1.7157779303157952E-2</v>
+        <f>P13+P16*N5+P17*O5</f>
+        <v>1.6610969388664226E-2</v>
       </c>
       <c r="Q20" s="21">
         <f>Q13+Q16+Q17</f>
